--- a/eInvoicing.Web/Content/uploads/BV Egypt -E-Invoices 25 Jan22 till 31 Jan22 R1.xlsx
+++ b/eInvoicing.Web/Content/uploads/BV Egypt -E-Invoices 25 Jan22 till 31 Jan22 R1.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MY D Partition\Tax\Electronic Invoice\Files\25-01-2022 till 31-01-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasan15\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C89E47-087C-4EEA-B0A4-4AAC2981AD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7350"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="6" r:id="rId1"/>
     <sheet name="Invoice Lines" sheetId="7" r:id="rId2"/>
     <sheet name="Taxable Items" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="317">
   <si>
     <t/>
   </si>
@@ -63,9 +75,6 @@
   </si>
   <si>
     <t>Canal Sugar</t>
-  </si>
-  <si>
-    <t>2022-01-25 00:00:00</t>
   </si>
   <si>
     <t>200149946</t>
@@ -428,12 +437,6 @@
   </si>
   <si>
     <t>GB725440254</t>
-  </si>
-  <si>
-    <t>2022-01-29 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-01-26 00:00:00</t>
   </si>
   <si>
     <t>204828589</t>
@@ -1051,21 +1054,34 @@
 3-Stock Inventory count In Mostord Depot
 1 half manday x 1137 EGP</t>
   </si>
+  <si>
+    <t>2022-02-06</t>
+  </si>
+  <si>
+    <t>2022-01-29 00:00:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.00000;[Red]#,##0.00000"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.00000;[Red]0.00000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1118,6 +1134,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1141,7 +1163,7 @@
   </cellStyleXfs>
   <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1151,16 +1173,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1172,31 +1194,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1211,26 +1233,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1239,10 +1261,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1254,13 +1276,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1269,7 +1291,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1278,28 +1300,28 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1307,56 +1329,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="91">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.00000;[Red]0.00000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.00000;[Red]0.00000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1607,6 +1579,56 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.00000;[Red]0.00000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.00000;[Red]0.00000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3486,112 +3508,112 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="A1:BG36" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
-  <autoFilter ref="A1:BG36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:BG36" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+  <autoFilter ref="A1:BG36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="59">
-    <tableColumn id="1" name="DocumentType" dataDxfId="88"/>
-    <tableColumn id="2" name="DocumentTypeVersion" dataDxfId="87"/>
-    <tableColumn id="3" name="DateTimeIssued" dataDxfId="86"/>
-    <tableColumn id="4" name="TaxpayerActivitycode" dataDxfId="85"/>
-    <tableColumn id="5" name="InternaldocumentId" dataDxfId="84"/>
-    <tableColumn id="6" name="PurchaseOrderReference" dataDxfId="83"/>
-    <tableColumn id="7" name="PurchaseOrderDescription" dataDxfId="82"/>
-    <tableColumn id="8" name="SalesOrderReference" dataDxfId="81"/>
-    <tableColumn id="9" name="SalesOrderDescription" dataDxfId="80"/>
-    <tableColumn id="10" name="ProformaInvoiceNumber" dataDxfId="79"/>
-    <tableColumn id="11" name="TotalSalesAmount" dataDxfId="78"/>
-    <tableColumn id="12" name="TotalDiscountAmount" dataDxfId="77"/>
-    <tableColumn id="13" name="NetAmount" dataDxfId="76"/>
-    <tableColumn id="14" name="ExtraDiscountAmount" dataDxfId="75"/>
-    <tableColumn id="15" name="TotalItemsDiscountAmount" dataDxfId="74"/>
-    <tableColumn id="16" name="TotalAmount" dataDxfId="73"/>
-    <tableColumn id="17" name="IssuerId" dataDxfId="72"/>
-    <tableColumn id="18" name="IssuerName" dataDxfId="71"/>
-    <tableColumn id="19" name="IssuerType" dataDxfId="70"/>
-    <tableColumn id="20" name="IssuerBranchID" dataDxfId="69"/>
-    <tableColumn id="21" name="IssuerCountry" dataDxfId="68"/>
-    <tableColumn id="22" name="IssuerGovernorate" dataDxfId="67"/>
-    <tableColumn id="23" name="IssuerRegionCity" dataDxfId="66"/>
-    <tableColumn id="24" name="IssuerStreet" dataDxfId="65"/>
-    <tableColumn id="25" name="IssuerBuildingNumber" dataDxfId="64"/>
-    <tableColumn id="26" name="IssuerPostalCode" dataDxfId="63"/>
-    <tableColumn id="27" name="IssuerFloor" dataDxfId="62"/>
-    <tableColumn id="28" name="IssuerRoom" dataDxfId="61"/>
-    <tableColumn id="29" name="IssuerLandmark" dataDxfId="60"/>
-    <tableColumn id="30" name="IssuerAdditionalInformation" dataDxfId="59"/>
-    <tableColumn id="31" name="ReceiverId" dataDxfId="58"/>
-    <tableColumn id="32" name="ReceiverName" dataDxfId="57"/>
-    <tableColumn id="33" name="ReceiverType" dataDxfId="56"/>
-    <tableColumn id="34" name="ReceiverCountry" dataDxfId="55"/>
-    <tableColumn id="35" name="ReceiverGovernorate" dataDxfId="54"/>
-    <tableColumn id="36" name="ReceiverRegionCity" dataDxfId="53"/>
-    <tableColumn id="37" name="ReceiverStreet" dataDxfId="52"/>
-    <tableColumn id="38" name="ReceiverBuildingNumber" dataDxfId="51"/>
-    <tableColumn id="39" name="ReceiverPostalCode" dataDxfId="50"/>
-    <tableColumn id="40" name="ReceiverFloor" dataDxfId="49"/>
-    <tableColumn id="41" name="ReceiverRoom" dataDxfId="48"/>
-    <tableColumn id="42" name="ReceiverLandmark" dataDxfId="47"/>
-    <tableColumn id="43" name="ReceiverAdditionalInformation" dataDxfId="46"/>
-    <tableColumn id="44" name="BankName" dataDxfId="45"/>
-    <tableColumn id="45" name="BankAddress" dataDxfId="44"/>
-    <tableColumn id="46" name="BankAccountNo" dataDxfId="43"/>
-    <tableColumn id="47" name="BankAccountIBAN" dataDxfId="42"/>
-    <tableColumn id="48" name="SwiftCode" dataDxfId="41"/>
-    <tableColumn id="49" name="PaymentTerms" dataDxfId="40"/>
-    <tableColumn id="50" name="Approach" dataDxfId="39"/>
-    <tableColumn id="51" name="Packaging" dataDxfId="38"/>
-    <tableColumn id="52" name="DateValidity" dataDxfId="37"/>
-    <tableColumn id="53" name="ExportPort" dataDxfId="36"/>
-    <tableColumn id="54" name="CountryOfOrigin" dataDxfId="35"/>
-    <tableColumn id="55" name="GrossWeight" dataDxfId="34"/>
-    <tableColumn id="56" name="NetWeight" dataDxfId="33"/>
-    <tableColumn id="57" name="InternalDocumentStatus" dataDxfId="32"/>
-    <tableColumn id="58" name="DeliveryTerms" dataDxfId="31"/>
-    <tableColumn id="59" name="ParentInternalDocumentId" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DocumentType" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DocumentTypeVersion" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DateTimeIssued" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TaxpayerActivitycode" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="InternaldocumentId" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PurchaseOrderReference" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PurchaseOrderDescription" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="SalesOrderReference" dataDxfId="81"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="SalesOrderDescription" dataDxfId="80"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ProformaInvoiceNumber" dataDxfId="79"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="TotalSalesAmount" dataDxfId="78"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="TotalDiscountAmount" dataDxfId="77"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="NetAmount" dataDxfId="76"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="ExtraDiscountAmount" dataDxfId="75"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="TotalItemsDiscountAmount" dataDxfId="74"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="TotalAmount" dataDxfId="73"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="IssuerId" dataDxfId="72"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="IssuerName" dataDxfId="71"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="IssuerType" dataDxfId="70"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="IssuerBranchID" dataDxfId="69"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="IssuerCountry" dataDxfId="68"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="IssuerGovernorate" dataDxfId="67"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="IssuerRegionCity" dataDxfId="66"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="IssuerStreet" dataDxfId="65"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="IssuerBuildingNumber" dataDxfId="64"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="IssuerPostalCode" dataDxfId="63"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="IssuerFloor" dataDxfId="62"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="IssuerRoom" dataDxfId="61"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="IssuerLandmark" dataDxfId="60"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="IssuerAdditionalInformation" dataDxfId="59"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="ReceiverId" dataDxfId="58"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="ReceiverName" dataDxfId="57"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="ReceiverType" dataDxfId="56"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="ReceiverCountry" dataDxfId="55"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="ReceiverGovernorate" dataDxfId="54"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="ReceiverRegionCity" dataDxfId="53"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="ReceiverStreet" dataDxfId="52"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="ReceiverBuildingNumber" dataDxfId="51"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="ReceiverPostalCode" dataDxfId="50"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="ReceiverFloor" dataDxfId="49"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="ReceiverRoom" dataDxfId="48"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="ReceiverLandmark" dataDxfId="47"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="ReceiverAdditionalInformation" dataDxfId="46"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="BankName" dataDxfId="45"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="BankAddress" dataDxfId="44"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="BankAccountNo" dataDxfId="43"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="BankAccountIBAN" dataDxfId="42"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="SwiftCode" dataDxfId="41"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="PaymentTerms" dataDxfId="40"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Approach" dataDxfId="39"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Packaging" dataDxfId="38"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="DateValidity" dataDxfId="37"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="ExportPort" dataDxfId="36"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="CountryOfOrigin" dataDxfId="35"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="GrossWeight" dataDxfId="34"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="NetWeight" dataDxfId="33"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="InternalDocumentStatus" dataDxfId="32"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="DeliveryTerms" dataDxfId="31"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="ParentInternalDocumentId" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:T47" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:T47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:T47" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:T47" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="20">
-    <tableColumn id="1" name="InternalInvoiceLineId" dataDxfId="27"/>
-    <tableColumn id="2" name="ItemType" dataDxfId="26"/>
-    <tableColumn id="3" name="ItemCode" dataDxfId="25"/>
-    <tableColumn id="4" name="UnitType" dataDxfId="24"/>
-    <tableColumn id="5" name="Quantity" dataDxfId="23"/>
-    <tableColumn id="6" name="InternalCode" dataDxfId="22"/>
-    <tableColumn id="7" name="SalesTotal" dataDxfId="21"/>
-    <tableColumn id="8" name="Total" dataDxfId="20"/>
-    <tableColumn id="9" name="ValueDifference" dataDxfId="19"/>
-    <tableColumn id="10" name="TotalTaxableFees" dataDxfId="18"/>
-    <tableColumn id="11" name="NetTotal" dataDxfId="17"/>
-    <tableColumn id="12" name="ItemsDiscount" dataDxfId="16"/>
-    <tableColumn id="13" name="Description" dataDxfId="15"/>
-    <tableColumn id="14" name="CurrencySold" dataDxfId="14"/>
-    <tableColumn id="15" name="AmountEGP" dataDxfId="13"/>
-    <tableColumn id="16" name="AmountSold" dataDxfId="1"/>
-    <tableColumn id="17" name="CurrencyExchangeRate" dataDxfId="0"/>
-    <tableColumn id="18" name="DiscountRate" dataDxfId="12"/>
-    <tableColumn id="19" name="DiscountAmount" dataDxfId="11"/>
-    <tableColumn id="20" name="InternalDocumentId" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="InternalInvoiceLineId" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ItemType" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ItemCode" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="UnitType" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Quantity" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="InternalCode" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="SalesTotal" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Total" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="ValueDifference" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="TotalTaxableFees" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="NetTotal" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="ItemsDiscount" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Description" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="CurrencySold" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="AmountEGP" dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="AmountSold" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="CurrencyExchangeRate" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="DiscountRate" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="DiscountAmount" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="InternalDocumentId" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="A1:F47" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:F47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1" displayName="Table1" ref="A1:F47" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F47" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="InternalId" dataDxfId="7"/>
-    <tableColumn id="2" name="TaxType" dataDxfId="6"/>
-    <tableColumn id="3" name="Rate" dataDxfId="5"/>
-    <tableColumn id="4" name="Amount" dataDxfId="4"/>
-    <tableColumn id="5" name="SubType" dataDxfId="3"/>
-    <tableColumn id="6" name="InternalInvoiceLineId" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="InternalId" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TaxType" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Rate" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Amount" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="SubType" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="InternalInvoiceLineId" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3859,11 +3881,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3931,192 +3953,192 @@
   <sheetData>
     <row r="1" spans="1:59" s="2" customFormat="1" ht="38.25" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:59" ht="45">
       <c r="A2" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="D2" s="5">
         <v>6920</v>
@@ -4151,7 +4173,7 @@
         <v>200080652</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>1</v>
@@ -4166,7 +4188,7 @@
         <v>3</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>4</v>
@@ -4200,10 +4222,10 @@
         <v>6</v>
       </c>
       <c r="AK2" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AL2" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AM2" s="5"/>
       <c r="AN2" s="5" t="s">
@@ -4216,13 +4238,13 @@
         <v>7</v>
       </c>
       <c r="AS2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT2" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT2" s="11" t="s">
+      <c r="AU2" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU2" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV2" s="3" t="s">
         <v>8</v>
@@ -4249,13 +4271,13 @@
     </row>
     <row r="3" spans="1:59" ht="45">
       <c r="A3" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="D3" s="5">
         <v>6920</v>
@@ -4290,7 +4312,7 @@
         <v>200080652</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>1</v>
@@ -4305,7 +4327,7 @@
         <v>3</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>4</v>
@@ -4339,10 +4361,10 @@
         <v>6</v>
       </c>
       <c r="AK3" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AL3" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AM3" s="5"/>
       <c r="AN3" s="5" t="s">
@@ -4355,13 +4377,13 @@
         <v>7</v>
       </c>
       <c r="AS3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT3" s="11" t="s">
+      <c r="AU3" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU3" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV3" s="3" t="s">
         <v>8</v>
@@ -4388,13 +4410,13 @@
     </row>
     <row r="4" spans="1:59" ht="45">
       <c r="A4" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="D4" s="5">
         <v>6920</v>
@@ -4429,7 +4451,7 @@
         <v>200080652</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>1</v>
@@ -4444,7 +4466,7 @@
         <v>3</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X4" s="5" t="s">
         <v>4</v>
@@ -4460,10 +4482,10 @@
       <c r="AC4" s="14"/>
       <c r="AD4" s="14"/>
       <c r="AE4" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AF4" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AG4" s="3" t="s">
         <v>1</v>
@@ -4472,13 +4494,13 @@
         <v>2</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AJ4" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AK4" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AL4" s="10">
         <v>431</v>
@@ -4494,13 +4516,13 @@
         <v>7</v>
       </c>
       <c r="AS4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT4" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT4" s="11" t="s">
+      <c r="AU4" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU4" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV4" s="3" t="s">
         <v>8</v>
@@ -4527,13 +4549,13 @@
     </row>
     <row r="5" spans="1:59" ht="45">
       <c r="A5" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="D5" s="5">
         <v>6920</v>
@@ -4568,7 +4590,7 @@
         <v>200080652</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>1</v>
@@ -4583,7 +4605,7 @@
         <v>3</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X5" s="5" t="s">
         <v>4</v>
@@ -4602,7 +4624,7 @@
         <v>100469396</v>
       </c>
       <c r="AF5" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AG5" s="3" t="s">
         <v>1</v>
@@ -4611,16 +4633,16 @@
         <v>2</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AJ5" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AK5" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AL5" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AM5" s="5"/>
       <c r="AN5" s="5" t="s">
@@ -4633,13 +4655,13 @@
         <v>7</v>
       </c>
       <c r="AS5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT5" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT5" s="11" t="s">
+      <c r="AU5" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU5" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV5" s="3" t="s">
         <v>8</v>
@@ -4666,13 +4688,13 @@
     </row>
     <row r="6" spans="1:59" ht="45">
       <c r="A6" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="D6" s="5">
         <v>6920</v>
@@ -4707,7 +4729,7 @@
         <v>200080652</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>1</v>
@@ -4722,7 +4744,7 @@
         <v>3</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X6" s="5" t="s">
         <v>4</v>
@@ -4741,7 +4763,7 @@
         <v>100469396</v>
       </c>
       <c r="AF6" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AG6" s="3" t="s">
         <v>1</v>
@@ -4750,16 +4772,16 @@
         <v>2</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AJ6" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AK6" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AL6" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AM6" s="5"/>
       <c r="AN6" s="5" t="s">
@@ -4772,13 +4794,13 @@
         <v>7</v>
       </c>
       <c r="AS6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT6" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT6" s="11" t="s">
+      <c r="AU6" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU6" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV6" s="3" t="s">
         <v>8</v>
@@ -4805,13 +4827,13 @@
     </row>
     <row r="7" spans="1:59" ht="45">
       <c r="A7" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="D7" s="5">
         <v>6920</v>
@@ -4846,7 +4868,7 @@
         <v>200080652</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>1</v>
@@ -4861,7 +4883,7 @@
         <v>3</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X7" s="5" t="s">
         <v>4</v>
@@ -4877,10 +4899,10 @@
       <c r="AC7" s="14"/>
       <c r="AD7" s="14"/>
       <c r="AE7" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AF7" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AG7" s="3" t="s">
         <v>1</v>
@@ -4895,7 +4917,7 @@
         <v>6</v>
       </c>
       <c r="AK7" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AL7" s="10">
         <v>18</v>
@@ -4911,13 +4933,13 @@
         <v>7</v>
       </c>
       <c r="AS7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT7" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT7" s="11" t="s">
+      <c r="AU7" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU7" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV7" s="3" t="s">
         <v>8</v>
@@ -4944,13 +4966,13 @@
     </row>
     <row r="8" spans="1:59" ht="45">
       <c r="A8" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="D8" s="5">
         <v>6920</v>
@@ -4985,7 +5007,7 @@
         <v>200080652</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>1</v>
@@ -5000,7 +5022,7 @@
         <v>3</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>4</v>
@@ -5034,7 +5056,7 @@
         <v>6</v>
       </c>
       <c r="AK8" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL8" s="10">
         <v>1</v>
@@ -5050,13 +5072,13 @@
         <v>7</v>
       </c>
       <c r="AS8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT8" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT8" s="11" t="s">
+      <c r="AU8" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU8" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV8" s="3" t="s">
         <v>8</v>
@@ -5083,13 +5105,13 @@
     </row>
     <row r="9" spans="1:59" ht="45">
       <c r="A9" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="D9" s="5">
         <v>6920</v>
@@ -5124,7 +5146,7 @@
         <v>200080652</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>1</v>
@@ -5139,7 +5161,7 @@
         <v>3</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X9" s="5" t="s">
         <v>4</v>
@@ -5173,7 +5195,7 @@
         <v>6</v>
       </c>
       <c r="AK9" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL9" s="10">
         <v>1</v>
@@ -5189,13 +5211,13 @@
         <v>7</v>
       </c>
       <c r="AS9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT9" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT9" s="11" t="s">
+      <c r="AU9" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU9" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV9" s="3" t="s">
         <v>8</v>
@@ -5222,13 +5244,13 @@
     </row>
     <row r="10" spans="1:59" ht="45">
       <c r="A10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="D10" s="5">
         <v>6920</v>
@@ -5263,7 +5285,7 @@
         <v>200080652</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>1</v>
@@ -5278,7 +5300,7 @@
         <v>3</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X10" s="5" t="s">
         <v>4</v>
@@ -5297,7 +5319,7 @@
         <v>204828589</v>
       </c>
       <c r="AF10" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AG10" s="3" t="s">
         <v>1</v>
@@ -5306,13 +5328,13 @@
         <v>2</v>
       </c>
       <c r="AI10" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AJ10" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AK10" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AL10" s="10">
         <v>431</v>
@@ -5328,13 +5350,13 @@
         <v>7</v>
       </c>
       <c r="AS10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT10" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT10" s="11" t="s">
+      <c r="AU10" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU10" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV10" s="3" t="s">
         <v>8</v>
@@ -5361,13 +5383,13 @@
     </row>
     <row r="11" spans="1:59" ht="45">
       <c r="A11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="D11" s="5">
         <v>6920</v>
@@ -5402,7 +5424,7 @@
         <v>200080652</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>1</v>
@@ -5417,7 +5439,7 @@
         <v>3</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X11" s="5" t="s">
         <v>4</v>
@@ -5433,10 +5455,10 @@
       <c r="AC11" s="14"/>
       <c r="AD11" s="14"/>
       <c r="AE11" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AF11" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AG11" s="14" t="s">
         <v>1</v>
@@ -5451,7 +5473,7 @@
         <v>6</v>
       </c>
       <c r="AK11" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AL11" s="14">
         <v>175</v>
@@ -5467,13 +5489,13 @@
         <v>7</v>
       </c>
       <c r="AS11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT11" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT11" s="11" t="s">
+      <c r="AU11" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU11" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV11" s="3" t="s">
         <v>8</v>
@@ -5500,13 +5522,13 @@
     </row>
     <row r="12" spans="1:59" ht="45">
       <c r="A12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="D12" s="5">
         <v>6920</v>
@@ -5541,7 +5563,7 @@
         <v>200080652</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>1</v>
@@ -5556,7 +5578,7 @@
         <v>3</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X12" s="5" t="s">
         <v>4</v>
@@ -5575,7 +5597,7 @@
         <v>331615843</v>
       </c>
       <c r="AF12" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AG12" s="3" t="s">
         <v>1</v>
@@ -5584,13 +5606,13 @@
         <v>2</v>
       </c>
       <c r="AI12" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AJ12" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AK12" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AL12" s="14">
         <v>126</v>
@@ -5606,13 +5628,13 @@
         <v>7</v>
       </c>
       <c r="AS12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT12" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT12" s="11" t="s">
+      <c r="AU12" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU12" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV12" s="3" t="s">
         <v>8</v>
@@ -5639,13 +5661,13 @@
     </row>
     <row r="13" spans="1:59" ht="45">
       <c r="A13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="D13" s="5">
         <v>6920</v>
@@ -5680,7 +5702,7 @@
         <v>200080652</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>1</v>
@@ -5695,7 +5717,7 @@
         <v>3</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X13" s="5" t="s">
         <v>4</v>
@@ -5714,7 +5736,7 @@
         <v>100469396</v>
       </c>
       <c r="AF13" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AG13" s="3" t="s">
         <v>1</v>
@@ -5723,16 +5745,16 @@
         <v>2</v>
       </c>
       <c r="AI13" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AJ13" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AK13" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AL13" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AM13" s="5"/>
       <c r="AN13" s="5" t="s">
@@ -5745,13 +5767,13 @@
         <v>7</v>
       </c>
       <c r="AS13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT13" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT13" s="11" t="s">
+      <c r="AU13" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU13" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV13" s="3" t="s">
         <v>8</v>
@@ -5778,13 +5800,13 @@
     </row>
     <row r="14" spans="1:59" ht="45">
       <c r="A14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="D14" s="5">
         <v>6920</v>
@@ -5819,7 +5841,7 @@
         <v>200080652</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>1</v>
@@ -5834,7 +5856,7 @@
         <v>3</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X14" s="5" t="s">
         <v>4</v>
@@ -5853,7 +5875,7 @@
         <v>100469396</v>
       </c>
       <c r="AF14" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AG14" s="3" t="s">
         <v>1</v>
@@ -5862,16 +5884,16 @@
         <v>2</v>
       </c>
       <c r="AI14" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AJ14" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AK14" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AL14" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AM14" s="5"/>
       <c r="AN14" s="5" t="s">
@@ -5884,13 +5906,13 @@
         <v>7</v>
       </c>
       <c r="AS14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT14" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT14" s="11" t="s">
+      <c r="AU14" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU14" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV14" s="3" t="s">
         <v>8</v>
@@ -5917,13 +5939,13 @@
     </row>
     <row r="15" spans="1:59" ht="45">
       <c r="A15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="D15" s="5">
         <v>6920</v>
@@ -5958,7 +5980,7 @@
         <v>200080652</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>1</v>
@@ -5973,7 +5995,7 @@
         <v>3</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X15" s="5" t="s">
         <v>4</v>
@@ -5992,7 +6014,7 @@
         <v>100469396</v>
       </c>
       <c r="AF15" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AG15" s="3" t="s">
         <v>1</v>
@@ -6001,16 +6023,16 @@
         <v>2</v>
       </c>
       <c r="AI15" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AJ15" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AK15" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AL15" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AM15" s="5"/>
       <c r="AN15" s="5" t="s">
@@ -6023,13 +6045,13 @@
         <v>7</v>
       </c>
       <c r="AS15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT15" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT15" s="11" t="s">
+      <c r="AU15" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU15" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV15" s="3" t="s">
         <v>8</v>
@@ -6056,13 +6078,13 @@
     </row>
     <row r="16" spans="1:59" ht="45">
       <c r="A16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="D16" s="5">
         <v>6920</v>
@@ -6097,7 +6119,7 @@
         <v>200080652</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>1</v>
@@ -6112,7 +6134,7 @@
         <v>3</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X16" s="5" t="s">
         <v>4</v>
@@ -6131,7 +6153,7 @@
         <v>205074529</v>
       </c>
       <c r="AF16" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AG16" s="14" t="s">
         <v>1</v>
@@ -6139,14 +6161,14 @@
       <c r="AH16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AI16" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ16" s="55" t="s">
-        <v>95</v>
+      <c r="AI16" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ16" s="54" t="s">
+        <v>94</v>
       </c>
       <c r="AK16" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AL16" s="14">
         <v>11</v>
@@ -6162,13 +6184,13 @@
         <v>7</v>
       </c>
       <c r="AS16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT16" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT16" s="11" t="s">
+      <c r="AU16" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU16" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV16" s="3" t="s">
         <v>8</v>
@@ -6195,13 +6217,13 @@
     </row>
     <row r="17" spans="1:59" ht="45">
       <c r="A17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="D17" s="5">
         <v>6920</v>
@@ -6236,7 +6258,7 @@
         <v>200080652</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>1</v>
@@ -6251,7 +6273,7 @@
         <v>3</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X17" s="5" t="s">
         <v>4</v>
@@ -6270,7 +6292,7 @@
         <v>528245120</v>
       </c>
       <c r="AF17" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AG17" s="3" t="s">
         <v>1</v>
@@ -6285,10 +6307,10 @@
         <v>6</v>
       </c>
       <c r="AK17" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AL17" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AM17" s="5"/>
       <c r="AN17" s="5" t="s">
@@ -6301,13 +6323,13 @@
         <v>7</v>
       </c>
       <c r="AS17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT17" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT17" s="11" t="s">
+      <c r="AU17" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU17" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV17" s="3" t="s">
         <v>8</v>
@@ -6334,13 +6356,13 @@
     </row>
     <row r="18" spans="1:59" ht="45">
       <c r="A18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="D18" s="10">
         <v>6920</v>
@@ -6375,7 +6397,7 @@
         <v>200080652</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>1</v>
@@ -6390,7 +6412,7 @@
         <v>3</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X18" s="5" t="s">
         <v>4</v>
@@ -6409,7 +6431,7 @@
         <v>200148117</v>
       </c>
       <c r="AF18" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AG18" s="3" t="s">
         <v>1</v>
@@ -6424,7 +6446,7 @@
         <v>6</v>
       </c>
       <c r="AK18" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL18" s="14">
         <v>1</v>
@@ -6440,13 +6462,13 @@
         <v>7</v>
       </c>
       <c r="AS18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT18" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT18" s="11" t="s">
+      <c r="AU18" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU18" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV18" s="3" t="s">
         <v>8</v>
@@ -6473,13 +6495,13 @@
     </row>
     <row r="19" spans="1:59" ht="45">
       <c r="A19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>14</v>
+      <c r="C19" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="D19" s="5">
         <v>6920</v>
@@ -6498,7 +6520,7 @@
       <c r="L19" s="8">
         <v>0</v>
       </c>
-      <c r="M19" s="50">
+      <c r="M19" s="49">
         <v>62826.663999999997</v>
       </c>
       <c r="N19" s="8">
@@ -6514,7 +6536,7 @@
         <v>200080652</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>1</v>
@@ -6529,7 +6551,7 @@
         <v>3</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X19" s="5" t="s">
         <v>4</v>
@@ -6548,7 +6570,7 @@
         <v>200191063</v>
       </c>
       <c r="AF19" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AG19" s="14" t="s">
         <v>1</v>
@@ -6563,7 +6585,7 @@
         <v>6</v>
       </c>
       <c r="AK19" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AL19" s="14">
         <v>7</v>
@@ -6579,13 +6601,13 @@
         <v>7</v>
       </c>
       <c r="AS19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT19" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT19" s="11" t="s">
+      <c r="AU19" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU19" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV19" s="3" t="s">
         <v>8</v>
@@ -6612,13 +6634,13 @@
     </row>
     <row r="20" spans="1:59" ht="45">
       <c r="A20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>134</v>
+      <c r="C20" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="D20" s="10">
         <v>6920</v>
@@ -6637,7 +6659,7 @@
       <c r="L20" s="8">
         <v>0</v>
       </c>
-      <c r="M20" s="50">
+      <c r="M20" s="49">
         <v>31707.831999999999</v>
       </c>
       <c r="N20" s="8">
@@ -6653,7 +6675,7 @@
         <v>200080652</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>1</v>
@@ -6668,7 +6690,7 @@
         <v>3</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X20" s="5" t="s">
         <v>4</v>
@@ -6687,7 +6709,7 @@
         <v>200148117</v>
       </c>
       <c r="AF20" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AG20" s="14" t="s">
         <v>1</v>
@@ -6702,7 +6724,7 @@
         <v>6</v>
       </c>
       <c r="AK20" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL20" s="14">
         <v>1</v>
@@ -6718,13 +6740,13 @@
         <v>7</v>
       </c>
       <c r="AS20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT20" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT20" s="11" t="s">
+      <c r="AU20" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU20" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV20" s="3" t="s">
         <v>8</v>
@@ -6751,13 +6773,13 @@
     </row>
     <row r="21" spans="1:59" ht="45">
       <c r="A21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>134</v>
+      <c r="C21" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="D21" s="5">
         <v>6920</v>
@@ -6776,7 +6798,7 @@
       <c r="L21" s="8">
         <v>0</v>
       </c>
-      <c r="M21" s="50">
+      <c r="M21" s="49">
         <v>31707.831999999999</v>
       </c>
       <c r="N21" s="8">
@@ -6792,7 +6814,7 @@
         <v>200080652</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>1</v>
@@ -6807,7 +6829,7 @@
         <v>3</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X21" s="5" t="s">
         <v>4</v>
@@ -6826,7 +6848,7 @@
         <v>200148117</v>
       </c>
       <c r="AF21" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AG21" s="14" t="s">
         <v>1</v>
@@ -6841,7 +6863,7 @@
         <v>6</v>
       </c>
       <c r="AK21" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL21" s="14">
         <v>1</v>
@@ -6857,13 +6879,13 @@
         <v>7</v>
       </c>
       <c r="AS21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT21" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT21" s="11" t="s">
+      <c r="AU21" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU21" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV21" s="3" t="s">
         <v>8</v>
@@ -6890,13 +6912,13 @@
     </row>
     <row r="22" spans="1:59" ht="45">
       <c r="A22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>134</v>
+      <c r="C22" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="D22" s="10">
         <v>6920</v>
@@ -6915,7 +6937,7 @@
       <c r="L22" s="8">
         <v>0</v>
       </c>
-      <c r="M22" s="50">
+      <c r="M22" s="49">
         <v>23277.278999999999</v>
       </c>
       <c r="N22" s="8">
@@ -6931,7 +6953,7 @@
         <v>200080652</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>1</v>
@@ -6946,7 +6968,7 @@
         <v>3</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X22" s="5" t="s">
         <v>4</v>
@@ -6965,7 +6987,7 @@
         <v>200148117</v>
       </c>
       <c r="AF22" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AG22" s="14" t="s">
         <v>1</v>
@@ -6980,7 +7002,7 @@
         <v>6</v>
       </c>
       <c r="AK22" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL22" s="14">
         <v>1</v>
@@ -6996,13 +7018,13 @@
         <v>7</v>
       </c>
       <c r="AS22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT22" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT22" s="11" t="s">
+      <c r="AU22" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU22" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV22" s="3" t="s">
         <v>8</v>
@@ -7029,13 +7051,13 @@
     </row>
     <row r="23" spans="1:59" ht="45">
       <c r="A23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>134</v>
+      <c r="C23" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="D23" s="5">
         <v>6920</v>
@@ -7054,7 +7076,7 @@
       <c r="L23" s="8">
         <v>0</v>
       </c>
-      <c r="M23" s="50">
+      <c r="M23" s="49">
         <v>36930.298999999999</v>
       </c>
       <c r="N23" s="8">
@@ -7070,7 +7092,7 @@
         <v>200080652</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>1</v>
@@ -7085,7 +7107,7 @@
         <v>3</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X23" s="5" t="s">
         <v>4</v>
@@ -7104,7 +7126,7 @@
         <v>200148117</v>
       </c>
       <c r="AF23" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AG23" s="14" t="s">
         <v>1</v>
@@ -7119,7 +7141,7 @@
         <v>6</v>
       </c>
       <c r="AK23" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL23" s="14">
         <v>1</v>
@@ -7135,13 +7157,13 @@
         <v>7</v>
       </c>
       <c r="AS23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT23" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT23" s="11" t="s">
+      <c r="AU23" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU23" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV23" s="3" t="s">
         <v>8</v>
@@ -7168,13 +7190,13 @@
     </row>
     <row r="24" spans="1:59" ht="45">
       <c r="A24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>134</v>
+      <c r="C24" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="D24" s="10">
         <v>6920</v>
@@ -7193,7 +7215,7 @@
       <c r="L24" s="8">
         <v>0</v>
       </c>
-      <c r="M24" s="50">
+      <c r="M24" s="49">
         <v>28271.999</v>
       </c>
       <c r="N24" s="8">
@@ -7209,7 +7231,7 @@
         <v>200080652</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>1</v>
@@ -7224,7 +7246,7 @@
         <v>3</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X24" s="5" t="s">
         <v>4</v>
@@ -7243,7 +7265,7 @@
         <v>200191063</v>
       </c>
       <c r="AF24" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AG24" s="14" t="s">
         <v>1</v>
@@ -7258,7 +7280,7 @@
         <v>6</v>
       </c>
       <c r="AK24" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AL24" s="14">
         <v>7</v>
@@ -7274,13 +7296,13 @@
         <v>7</v>
       </c>
       <c r="AS24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT24" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT24" s="11" t="s">
+      <c r="AU24" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU24" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV24" s="3" t="s">
         <v>8</v>
@@ -7307,13 +7329,13 @@
     </row>
     <row r="25" spans="1:59" ht="45">
       <c r="A25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>134</v>
+      <c r="C25" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="D25" s="5">
         <v>6920</v>
@@ -7332,7 +7354,7 @@
       <c r="L25" s="8">
         <v>0</v>
       </c>
-      <c r="M25" s="50">
+      <c r="M25" s="49">
         <v>7000</v>
       </c>
       <c r="N25" s="8">
@@ -7348,7 +7370,7 @@
         <v>200080652</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S25" s="3" t="s">
         <v>1</v>
@@ -7363,7 +7385,7 @@
         <v>3</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X25" s="5" t="s">
         <v>4</v>
@@ -7382,7 +7404,7 @@
         <v>210601779</v>
       </c>
       <c r="AF25" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AG25" s="14" t="s">
         <v>1</v>
@@ -7391,13 +7413,13 @@
         <v>2</v>
       </c>
       <c r="AI25" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ25" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK25" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AL25" s="14">
         <v>3</v>
@@ -7413,13 +7435,13 @@
         <v>7</v>
       </c>
       <c r="AS25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT25" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT25" s="11" t="s">
+      <c r="AU25" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU25" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV25" s="3" t="s">
         <v>8</v>
@@ -7446,13 +7468,13 @@
     </row>
     <row r="26" spans="1:59" ht="45">
       <c r="A26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>134</v>
+      <c r="C26" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="D26" s="10">
         <v>6920</v>
@@ -7471,7 +7493,7 @@
       <c r="L26" s="8">
         <v>0</v>
       </c>
-      <c r="M26" s="50">
+      <c r="M26" s="49">
         <v>8874.2659999999996</v>
       </c>
       <c r="N26" s="8">
@@ -7487,7 +7509,7 @@
         <v>200080652</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>1</v>
@@ -7502,7 +7524,7 @@
         <v>3</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X26" s="5" t="s">
         <v>4</v>
@@ -7518,10 +7540,10 @@
       <c r="AC26" s="14"/>
       <c r="AD26" s="14"/>
       <c r="AE26" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AF26" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AG26" s="14" t="s">
         <v>1</v>
@@ -7530,16 +7552,16 @@
         <v>2</v>
       </c>
       <c r="AI26" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AJ26" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AK26" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AL26" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AM26" s="14"/>
       <c r="AN26" s="14" t="s">
@@ -7552,13 +7574,13 @@
         <v>7</v>
       </c>
       <c r="AS26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT26" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT26" s="11" t="s">
+      <c r="AU26" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU26" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV26" s="3" t="s">
         <v>8</v>
@@ -7585,13 +7607,13 @@
     </row>
     <row r="27" spans="1:59" ht="45">
       <c r="A27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>134</v>
+      <c r="C27" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="D27" s="5">
         <v>6920</v>
@@ -7610,7 +7632,7 @@
       <c r="L27" s="8">
         <v>0</v>
       </c>
-      <c r="M27" s="50">
+      <c r="M27" s="49">
         <v>5643.884</v>
       </c>
       <c r="N27" s="8">
@@ -7626,7 +7648,7 @@
         <v>200080652</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>1</v>
@@ -7641,7 +7663,7 @@
         <v>3</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X27" s="5" t="s">
         <v>4</v>
@@ -7657,25 +7679,25 @@
       <c r="AC27" s="14"/>
       <c r="AD27" s="14"/>
       <c r="AE27" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF27" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG27" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH27" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI27" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="AF27" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG27" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH27" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI27" s="14" t="s">
-        <v>158</v>
-      </c>
       <c r="AJ27" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AK27" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AL27" s="14">
         <v>165</v>
@@ -7691,13 +7713,13 @@
         <v>7</v>
       </c>
       <c r="AS27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT27" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT27" s="11" t="s">
+      <c r="AU27" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU27" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV27" s="3" t="s">
         <v>8</v>
@@ -7724,13 +7746,13 @@
     </row>
     <row r="28" spans="1:59" ht="45">
       <c r="A28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>134</v>
+      <c r="C28" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="D28" s="10">
         <v>6920</v>
@@ -7749,7 +7771,7 @@
       <c r="L28" s="8">
         <v>0</v>
       </c>
-      <c r="M28" s="50">
+      <c r="M28" s="49">
         <v>8000</v>
       </c>
       <c r="N28" s="8">
@@ -7765,7 +7787,7 @@
         <v>200080652</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>1</v>
@@ -7780,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X28" s="5" t="s">
         <v>4</v>
@@ -7799,7 +7821,7 @@
         <v>205808247</v>
       </c>
       <c r="AF28" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AG28" s="14" t="s">
         <v>1</v>
@@ -7808,13 +7830,13 @@
         <v>2</v>
       </c>
       <c r="AI28" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ28" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK28" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AL28" s="14">
         <v>11</v>
@@ -7830,13 +7852,13 @@
         <v>7</v>
       </c>
       <c r="AS28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT28" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT28" s="11" t="s">
+      <c r="AU28" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU28" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV28" s="3" t="s">
         <v>8</v>
@@ -7863,13 +7885,13 @@
     </row>
     <row r="29" spans="1:59" ht="45">
       <c r="A29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>134</v>
+      <c r="C29" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="D29" s="5">
         <v>6920</v>
@@ -7888,7 +7910,7 @@
       <c r="L29" s="8">
         <v>0</v>
       </c>
-      <c r="M29" s="50">
+      <c r="M29" s="49">
         <v>12000</v>
       </c>
       <c r="N29" s="8">
@@ -7904,7 +7926,7 @@
         <v>200080652</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>1</v>
@@ -7919,7 +7941,7 @@
         <v>3</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X29" s="5" t="s">
         <v>4</v>
@@ -7938,7 +7960,7 @@
         <v>205015182</v>
       </c>
       <c r="AF29" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AG29" s="14" t="s">
         <v>1</v>
@@ -7947,16 +7969,16 @@
         <v>2</v>
       </c>
       <c r="AI29" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AJ29" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK29" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AL29" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AM29" s="14"/>
       <c r="AN29" s="14" t="s">
@@ -7969,13 +7991,13 @@
         <v>7</v>
       </c>
       <c r="AS29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT29" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT29" s="11" t="s">
+      <c r="AU29" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU29" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV29" s="3" t="s">
         <v>8</v>
@@ -8002,13 +8024,13 @@
     </row>
     <row r="30" spans="1:59" ht="45">
       <c r="A30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>134</v>
+      <c r="C30" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="D30" s="10">
         <v>6920</v>
@@ -8027,7 +8049,7 @@
       <c r="L30" s="8">
         <v>0</v>
       </c>
-      <c r="M30" s="50">
+      <c r="M30" s="49">
         <v>16491.999</v>
       </c>
       <c r="N30" s="8">
@@ -8043,7 +8065,7 @@
         <v>200080652</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>1</v>
@@ -8058,7 +8080,7 @@
         <v>3</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X30" s="5" t="s">
         <v>4</v>
@@ -8074,32 +8096,32 @@
       <c r="AC30" s="14"/>
       <c r="AD30" s="14"/>
       <c r="AE30" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF30" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG30" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH30" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI30" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="AF30" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG30" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH30" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI30" s="14" t="s">
-        <v>165</v>
-      </c>
       <c r="AJ30" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AK30" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AL30" s="14">
         <v>72</v>
       </c>
       <c r="AM30" s="14"/>
       <c r="AN30" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AO30" s="14"/>
       <c r="AP30" s="14"/>
@@ -8108,13 +8130,13 @@
         <v>7</v>
       </c>
       <c r="AS30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT30" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT30" s="11" t="s">
+      <c r="AU30" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU30" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV30" s="3" t="s">
         <v>8</v>
@@ -8141,13 +8163,13 @@
     </row>
     <row r="31" spans="1:59" ht="45">
       <c r="A31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>134</v>
+      <c r="C31" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="D31" s="5">
         <v>6920</v>
@@ -8166,7 +8188,7 @@
       <c r="L31" s="8">
         <v>0</v>
       </c>
-      <c r="M31" s="50">
+      <c r="M31" s="49">
         <v>18847.999</v>
       </c>
       <c r="N31" s="8">
@@ -8182,7 +8204,7 @@
         <v>200080652</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>1</v>
@@ -8197,7 +8219,7 @@
         <v>3</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X31" s="5" t="s">
         <v>4</v>
@@ -8213,32 +8235,32 @@
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
       <c r="AE31" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF31" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG31" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH31" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI31" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="AF31" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG31" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH31" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI31" s="14" t="s">
-        <v>165</v>
-      </c>
       <c r="AJ31" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AK31" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AL31" s="14">
         <v>72</v>
       </c>
       <c r="AM31" s="14"/>
       <c r="AN31" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AO31" s="14"/>
       <c r="AP31" s="14"/>
@@ -8247,13 +8269,13 @@
         <v>7</v>
       </c>
       <c r="AS31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT31" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT31" s="11" t="s">
+      <c r="AU31" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU31" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV31" s="3" t="s">
         <v>8</v>
@@ -8280,13 +8302,13 @@
     </row>
     <row r="32" spans="1:59" ht="45">
       <c r="A32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>134</v>
+      <c r="C32" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="D32" s="10">
         <v>6920</v>
@@ -8305,7 +8327,7 @@
       <c r="L32" s="8">
         <v>0</v>
       </c>
-      <c r="M32" s="50">
+      <c r="M32" s="49">
         <v>10021.089</v>
       </c>
       <c r="N32" s="8">
@@ -8321,7 +8343,7 @@
         <v>200080652</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>1</v>
@@ -8336,7 +8358,7 @@
         <v>3</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X32" s="5" t="s">
         <v>4</v>
@@ -8352,28 +8374,28 @@
       <c r="AC32" s="14"/>
       <c r="AD32" s="14"/>
       <c r="AE32" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF32" s="14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AG32" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH32" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI32" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AJ32" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AK32" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AL32" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AM32" s="14"/>
       <c r="AN32" s="14" t="s">
@@ -8386,13 +8408,13 @@
         <v>7</v>
       </c>
       <c r="AS32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT32" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT32" s="11" t="s">
+      <c r="AU32" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU32" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV32" s="3" t="s">
         <v>8</v>
@@ -8419,13 +8441,13 @@
     </row>
     <row r="33" spans="1:59" ht="45">
       <c r="A33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="48" t="s">
-        <v>134</v>
+      <c r="C33" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="D33" s="5">
         <v>6920</v>
@@ -8444,7 +8466,7 @@
       <c r="L33" s="8">
         <v>0</v>
       </c>
-      <c r="M33" s="50">
+      <c r="M33" s="49">
         <v>23000</v>
       </c>
       <c r="N33" s="8">
@@ -8460,7 +8482,7 @@
         <v>200080652</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>1</v>
@@ -8475,7 +8497,7 @@
         <v>3</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X33" s="5" t="s">
         <v>4</v>
@@ -8494,7 +8516,7 @@
         <v>200109545</v>
       </c>
       <c r="AF33" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AG33" s="14" t="s">
         <v>1</v>
@@ -8509,7 +8531,7 @@
         <v>6</v>
       </c>
       <c r="AK33" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AL33" s="14">
         <v>21</v>
@@ -8525,13 +8547,13 @@
         <v>7</v>
       </c>
       <c r="AS33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT33" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT33" s="11" t="s">
+      <c r="AU33" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU33" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV33" s="3" t="s">
         <v>8</v>
@@ -8558,13 +8580,13 @@
     </row>
     <row r="34" spans="1:59" ht="45">
       <c r="A34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>134</v>
+      <c r="C34" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="D34" s="10">
         <v>6920</v>
@@ -8583,7 +8605,7 @@
       <c r="L34" s="8">
         <v>0</v>
       </c>
-      <c r="M34" s="50">
+      <c r="M34" s="49">
         <v>205900</v>
       </c>
       <c r="N34" s="8">
@@ -8599,7 +8621,7 @@
         <v>200080652</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>1</v>
@@ -8614,7 +8636,7 @@
         <v>3</v>
       </c>
       <c r="W34" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X34" s="5" t="s">
         <v>4</v>
@@ -8630,10 +8652,10 @@
       <c r="AC34" s="14"/>
       <c r="AD34" s="14"/>
       <c r="AE34" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AF34" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AG34" s="14" t="s">
         <v>1</v>
@@ -8642,16 +8664,16 @@
         <v>2</v>
       </c>
       <c r="AI34" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AJ34" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AK34" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AL34" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AM34" s="14"/>
       <c r="AN34" s="14" t="s">
@@ -8664,13 +8686,13 @@
         <v>7</v>
       </c>
       <c r="AS34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT34" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT34" s="11" t="s">
+      <c r="AU34" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU34" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV34" s="3" t="s">
         <v>8</v>
@@ -8697,13 +8719,13 @@
     </row>
     <row r="35" spans="1:59" ht="45">
       <c r="A35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>14</v>
+      <c r="C35" s="55" t="s">
+        <v>316</v>
       </c>
       <c r="D35" s="5">
         <v>6920</v>
@@ -8722,7 +8744,7 @@
       <c r="L35" s="8">
         <v>0</v>
       </c>
-      <c r="M35" s="50">
+      <c r="M35" s="49">
         <v>37301.26</v>
       </c>
       <c r="N35" s="8">
@@ -8738,7 +8760,7 @@
         <v>200080652</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>1</v>
@@ -8753,7 +8775,7 @@
         <v>3</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X35" s="5" t="s">
         <v>4</v>
@@ -8769,25 +8791,25 @@
       <c r="AC35" s="14"/>
       <c r="AD35" s="14"/>
       <c r="AE35" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AF35" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AG35" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH35" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI35" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AJ35" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AK35" s="14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AL35" s="14">
         <v>62</v>
@@ -8803,13 +8825,13 @@
         <v>7</v>
       </c>
       <c r="AS35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT35" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT35" s="11" t="s">
+      <c r="AU35" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU35" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV35" s="3" t="s">
         <v>8</v>
@@ -8836,13 +8858,13 @@
     </row>
     <row r="36" spans="1:59" ht="45">
       <c r="A36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>134</v>
+      <c r="C36" s="55" t="s">
+        <v>316</v>
       </c>
       <c r="D36" s="10">
         <v>6920</v>
@@ -8861,7 +8883,7 @@
       <c r="L36" s="8">
         <v>0</v>
       </c>
-      <c r="M36" s="50">
+      <c r="M36" s="49">
         <v>57387</v>
       </c>
       <c r="N36" s="8">
@@ -8877,7 +8899,7 @@
         <v>200080652</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S36" s="3" t="s">
         <v>1</v>
@@ -8892,7 +8914,7 @@
         <v>3</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X36" s="5" t="s">
         <v>4</v>
@@ -8908,10 +8930,10 @@
       <c r="AC36" s="14"/>
       <c r="AD36" s="14"/>
       <c r="AE36" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF36" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AG36" s="14" t="s">
         <v>1</v>
@@ -8926,7 +8948,7 @@
         <v>6</v>
       </c>
       <c r="AK36" s="14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AL36" s="14">
         <v>40</v>
@@ -8942,13 +8964,13 @@
         <v>7</v>
       </c>
       <c r="AS36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT36" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT36" s="11" t="s">
+      <c r="AU36" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="AU36" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="AV36" s="3" t="s">
         <v>8</v>
@@ -8974,11 +8996,12 @@
       <c r="BG36" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B36">
+  <phoneticPr fontId="10" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B36" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0.9, 1.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2:BE36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2:BE36" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Completed, Updated"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8991,7 +9014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9024,78 +9047,78 @@
   <sheetData>
     <row r="1" spans="1:22" s="13" customFormat="1">
       <c r="A1" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="O1" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="Q1" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>116</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="34" customFormat="1" ht="60">
       <c r="A2" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="26">
         <v>1</v>
@@ -9122,10 +9145,10 @@
         <v>0</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" s="27">
         <v>7000</v>
@@ -9148,16 +9171,16 @@
     </row>
     <row r="3" spans="1:22" s="34" customFormat="1" ht="30">
       <c r="A3" s="25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E3" s="26">
         <v>1</v>
@@ -9184,10 +9207,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3" s="27">
         <v>14000</v>
@@ -9210,16 +9233,16 @@
     </row>
     <row r="4" spans="1:22" s="34" customFormat="1">
       <c r="A4" s="25" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="26">
         <v>1</v>
@@ -9246,10 +9269,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4" s="27">
         <v>11700</v>
@@ -9272,16 +9295,16 @@
     </row>
     <row r="5" spans="1:22" s="34" customFormat="1">
       <c r="A5" s="25" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="26">
         <v>1</v>
@@ -9308,10 +9331,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O5" s="27">
         <v>15250</v>
@@ -9334,16 +9357,16 @@
     </row>
     <row r="6" spans="1:22" s="34" customFormat="1">
       <c r="A6" s="25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E6" s="26">
         <v>1</v>
@@ -9370,10 +9393,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O6" s="27">
         <v>1952.33</v>
@@ -9396,16 +9419,16 @@
     </row>
     <row r="7" spans="1:22" s="34" customFormat="1">
       <c r="A7" s="25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E7" s="26">
         <v>1</v>
@@ -9432,10 +9455,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" s="27">
         <v>5662.21</v>
@@ -9458,16 +9481,16 @@
     </row>
     <row r="8" spans="1:22" s="34" customFormat="1">
       <c r="A8" s="25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E8" s="26">
         <v>1</v>
@@ -9494,10 +9517,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" s="27">
         <v>35921.067000000003</v>
@@ -9520,16 +9543,16 @@
     </row>
     <row r="9" spans="1:22" s="34" customFormat="1">
       <c r="A9" s="25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E9" s="26">
         <v>1</v>
@@ -9556,10 +9579,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O9" s="27">
         <v>42000</v>
@@ -9582,16 +9605,16 @@
     </row>
     <row r="10" spans="1:22" s="34" customFormat="1" ht="30">
       <c r="A10" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E10" s="26">
         <v>1</v>
@@ -9618,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O10" s="27">
         <v>66800</v>
@@ -9644,16 +9667,16 @@
     </row>
     <row r="11" spans="1:22" s="34" customFormat="1">
       <c r="A11" s="25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E11" s="26">
         <v>1</v>
@@ -9680,10 +9703,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O11" s="27">
         <v>1570.6669999999999</v>
@@ -9706,16 +9729,16 @@
     </row>
     <row r="12" spans="1:22" s="34" customFormat="1" ht="30">
       <c r="A12" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E12" s="26">
         <v>1</v>
@@ -9743,10 +9766,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O12" s="27">
         <v>54333.454999999994</v>
@@ -9769,16 +9792,16 @@
     </row>
     <row r="13" spans="1:22" s="34" customFormat="1">
       <c r="A13" s="25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E13" s="26">
         <v>1</v>
@@ -9806,10 +9829,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O13" s="27">
         <v>4179.4970000000003</v>
@@ -9832,16 +9855,16 @@
     </row>
     <row r="14" spans="1:22" s="34" customFormat="1">
       <c r="A14" s="25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E14" s="26">
         <v>1</v>
@@ -9869,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O14" s="27">
         <v>1865.847</v>
@@ -9895,16 +9918,16 @@
     </row>
     <row r="15" spans="1:22" s="34" customFormat="1">
       <c r="A15" s="36" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E15" s="26">
         <v>1</v>
@@ -9931,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O15" s="27">
         <v>5131.59</v>
@@ -9957,16 +9980,16 @@
     </row>
     <row r="16" spans="1:22" ht="75">
       <c r="A16" s="36" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E16" s="26">
         <v>1</v>
@@ -9993,10 +10016,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O16" s="27">
         <v>7000</v>
@@ -10020,16 +10043,16 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E17" s="26">
         <v>1</v>
@@ -10056,10 +10079,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O17" s="27">
         <v>15706.665999999999</v>
@@ -10083,16 +10106,16 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="36" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E18" s="26">
         <v>1</v>
@@ -10119,10 +10142,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="30" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O18" s="27">
         <v>42000</v>
@@ -10146,16 +10169,16 @@
     </row>
     <row r="19" spans="1:22" ht="30">
       <c r="A19" s="36" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E19" s="26">
         <v>1</v>
@@ -10182,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O19" s="27">
         <v>66800</v>
@@ -10209,16 +10232,16 @@
     </row>
     <row r="20" spans="1:22" ht="30">
       <c r="A20" s="36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E20" s="26">
         <v>1</v>
@@ -10245,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="35" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O20" s="27">
         <v>73000</v>
@@ -10272,16 +10295,16 @@
     </row>
     <row r="21" spans="1:22" ht="45">
       <c r="A21" s="36" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E21" s="26">
         <v>1</v>
@@ -10308,10 +10331,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O21" s="27">
         <v>1382.1869999999999</v>
@@ -10335,16 +10358,16 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="36" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E22" s="26">
         <v>1</v>
@@ -10371,10 +10394,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="35" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O22" s="27">
         <v>17000</v>
@@ -10398,16 +10421,16 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E23" s="26">
         <v>1</v>
@@ -10434,10 +10457,10 @@
         <v>0</v>
       </c>
       <c r="M23" s="35" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O23" s="27">
         <v>18000</v>
@@ -10461,16 +10484,16 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E24" s="26">
         <v>1</v>
@@ -10497,10 +10520,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O24" s="27">
         <v>22000</v>
@@ -10524,16 +10547,16 @@
     </row>
     <row r="25" spans="1:22" ht="30">
       <c r="A25" s="36" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E25" s="26">
         <v>1</v>
@@ -10560,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="M25" s="35" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O25" s="27">
         <v>31707.831999999999</v>
@@ -10587,16 +10610,16 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E26" s="26">
         <v>1</v>
@@ -10623,10 +10646,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O26" s="27">
         <v>62826.663999999997</v>
@@ -10650,16 +10673,16 @@
     </row>
     <row r="27" spans="1:22" ht="30">
       <c r="A27" s="36" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E27" s="26">
         <v>1</v>
@@ -10686,10 +10709,10 @@
         <v>0</v>
       </c>
       <c r="M27" s="35" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O27" s="27">
         <v>31707.831999999999</v>
@@ -10713,16 +10736,16 @@
     </row>
     <row r="28" spans="1:22" ht="30">
       <c r="A28" s="36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E28" s="26">
         <v>1</v>
@@ -10749,10 +10772,10 @@
         <v>0</v>
       </c>
       <c r="M28" s="35" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O28" s="27">
         <v>31707.831999999999</v>
@@ -10776,16 +10799,16 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="36" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E29" s="26">
         <v>1</v>
@@ -10812,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="M29" s="35" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O29" s="27">
         <v>23277.278999999999</v>
@@ -10839,16 +10862,16 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E30" s="26">
         <v>1</v>
@@ -10875,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="M30" s="30" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O30" s="27">
         <v>36930.298999999999</v>
@@ -10902,16 +10925,16 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E31" s="26">
         <v>1</v>
@@ -10938,10 +10961,10 @@
         <v>0</v>
       </c>
       <c r="M31" s="30" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O31" s="27">
         <v>28271.999</v>
@@ -10965,16 +10988,16 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="36" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E32" s="26">
         <v>1</v>
@@ -11001,10 +11024,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O32" s="27">
         <v>7000</v>
@@ -11028,16 +11051,16 @@
     </row>
     <row r="33" spans="1:22" ht="30">
       <c r="A33" s="36" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E33" s="26">
         <v>1</v>
@@ -11064,10 +11087,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="35" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O33" s="27">
         <v>8874.2659999999996</v>
@@ -11091,16 +11114,16 @@
     </row>
     <row r="34" spans="1:22" ht="30">
       <c r="A34" s="36" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E34" s="26">
         <v>1</v>
@@ -11127,10 +11150,10 @@
         <v>0</v>
       </c>
       <c r="M34" s="35" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O34" s="27">
         <v>5643.884</v>
@@ -11154,16 +11177,16 @@
     </row>
     <row r="35" spans="1:22" ht="60">
       <c r="A35" s="36" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E35" s="26">
         <v>1</v>
@@ -11190,10 +11213,10 @@
         <v>0</v>
       </c>
       <c r="M35" s="35" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O35" s="27">
         <v>8000</v>
@@ -11217,16 +11240,16 @@
     </row>
     <row r="36" spans="1:22" ht="60">
       <c r="A36" s="36" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E36" s="26">
         <v>1</v>
@@ -11253,10 +11276,10 @@
         <v>0</v>
       </c>
       <c r="M36" s="35" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O36" s="27">
         <v>12000</v>
@@ -11280,16 +11303,16 @@
     </row>
     <row r="37" spans="1:22" ht="90">
       <c r="A37" s="36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E37" s="26">
         <v>1</v>
@@ -11315,11 +11338,11 @@
       <c r="L37" s="3">
         <v>0</v>
       </c>
-      <c r="M37" s="54" t="s">
-        <v>307</v>
+      <c r="M37" s="53" t="s">
+        <v>304</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O37" s="27">
         <v>16491.999</v>
@@ -11343,16 +11366,16 @@
     </row>
     <row r="38" spans="1:22" ht="90">
       <c r="A38" s="36" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E38" s="26">
         <v>1</v>
@@ -11378,11 +11401,11 @@
       <c r="L38" s="3">
         <v>0</v>
       </c>
-      <c r="M38" s="54" t="s">
-        <v>308</v>
+      <c r="M38" s="53" t="s">
+        <v>305</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O38" s="27">
         <v>18847.999</v>
@@ -11406,16 +11429,16 @@
     </row>
     <row r="39" spans="1:22" ht="75">
       <c r="A39" s="36" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E39" s="26">
         <v>1</v>
@@ -11441,11 +11464,11 @@
       <c r="L39" s="3">
         <v>0</v>
       </c>
-      <c r="M39" s="54" t="s">
-        <v>310</v>
+      <c r="M39" s="53" t="s">
+        <v>307</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O39" s="27">
         <v>8492.4480000000003</v>
@@ -11469,16 +11492,16 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="36" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E40" s="26">
         <v>1</v>
@@ -11504,11 +11527,11 @@
       <c r="L40" s="3">
         <v>0</v>
       </c>
-      <c r="M40" s="54" t="s">
-        <v>309</v>
+      <c r="M40" s="53" t="s">
+        <v>306</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O40" s="27">
         <v>1528.6410000000001</v>
@@ -11532,16 +11555,16 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="36" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E41" s="26">
         <v>1</v>
@@ -11568,10 +11591,10 @@
         <v>0</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O41" s="27">
         <v>23000</v>
@@ -11595,16 +11618,16 @@
     </row>
     <row r="42" spans="1:22" ht="30">
       <c r="A42" s="36" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E42" s="26">
         <v>1</v>
@@ -11631,10 +11654,10 @@
         <v>0</v>
       </c>
       <c r="M42" s="35" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O42" s="27">
         <v>34300</v>
@@ -11658,16 +11681,16 @@
     </row>
     <row r="43" spans="1:22" ht="30">
       <c r="A43" s="36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E43" s="26">
         <v>1</v>
@@ -11694,10 +11717,10 @@
         <v>0</v>
       </c>
       <c r="M43" s="35" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O43" s="27">
         <v>33600</v>
@@ -11721,16 +11744,16 @@
     </row>
     <row r="44" spans="1:22" ht="30">
       <c r="A44" s="36" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E44" s="26">
         <v>1</v>
@@ -11757,10 +11780,10 @@
         <v>0</v>
       </c>
       <c r="M44" s="35" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O44" s="27">
         <v>63000</v>
@@ -11784,16 +11807,16 @@
     </row>
     <row r="45" spans="1:22" ht="30">
       <c r="A45" s="36" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E45" s="26">
         <v>1</v>
@@ -11820,10 +11843,10 @@
         <v>0</v>
       </c>
       <c r="M45" s="39" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O45" s="27">
         <v>75000</v>
@@ -11846,17 +11869,17 @@
       <c r="V45" s="34"/>
     </row>
     <row r="46" spans="1:22" ht="210">
-      <c r="A46" s="51" t="s">
-        <v>236</v>
+      <c r="A46" s="50" t="s">
+        <v>233</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E46" s="26">
         <v>1</v>
@@ -11864,10 +11887,10 @@
       <c r="F46" s="3">
         <v>69</v>
       </c>
-      <c r="G46" s="52">
+      <c r="G46" s="51">
         <v>37301.26</v>
       </c>
-      <c r="H46" s="52">
+      <c r="H46" s="51">
         <v>37301.26</v>
       </c>
       <c r="I46" s="28">
@@ -11876,25 +11899,25 @@
       <c r="J46" s="29">
         <v>0</v>
       </c>
-      <c r="K46" s="52">
+      <c r="K46" s="51">
         <v>37301.26</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="40" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="N46" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="O46" s="52">
+        <v>19</v>
+      </c>
+      <c r="O46" s="51">
         <v>37301.26</v>
       </c>
-      <c r="P46" s="53">
+      <c r="P46" s="52">
         <v>2375</v>
       </c>
-      <c r="Q46" s="49">
+      <c r="Q46" s="48">
         <v>15.7057936</v>
       </c>
       <c r="R46" s="33">
@@ -11909,17 +11932,17 @@
       <c r="V46" s="34"/>
     </row>
     <row r="47" spans="1:22" ht="285">
-      <c r="A47" s="51" t="s">
-        <v>237</v>
+      <c r="A47" s="50" t="s">
+        <v>234</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E47" s="26">
         <v>1</v>
@@ -11927,10 +11950,10 @@
       <c r="F47" s="3">
         <v>69</v>
       </c>
-      <c r="G47" s="52">
+      <c r="G47" s="51">
         <v>57387</v>
       </c>
-      <c r="H47" s="52">
+      <c r="H47" s="51">
         <v>65421.18</v>
       </c>
       <c r="I47" s="28">
@@ -11939,25 +11962,25 @@
       <c r="J47" s="29">
         <v>0</v>
       </c>
-      <c r="K47" s="52">
+      <c r="K47" s="51">
         <v>57387</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
       <c r="M47" s="40" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="N47" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O47" s="52">
+        <v>20</v>
+      </c>
+      <c r="O47" s="51">
         <v>57387</v>
       </c>
-      <c r="P47" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="49">
+      <c r="P47" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="48">
         <v>0</v>
       </c>
       <c r="R47" s="33">
@@ -11981,7 +12004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
@@ -12000,30 +12023,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="13" customFormat="1">
       <c r="A1" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>122</v>
-      </c>
       <c r="F1" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="42" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="43">
         <v>14</v>
@@ -12032,18 +12055,18 @@
         <v>980</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="42" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="43">
         <v>14</v>
@@ -12052,18 +12075,18 @@
         <v>1960</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="42" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="43">
         <v>14</v>
@@ -12072,18 +12095,18 @@
         <v>1638</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="42" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="43">
         <v>14</v>
@@ -12092,18 +12115,18 @@
         <v>2135</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="42" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="43">
         <v>14</v>
@@ -12112,18 +12135,18 @@
         <v>273.32600000000002</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="42" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="43">
         <v>14</v>
@@ -12132,18 +12155,18 @@
         <v>792.70899999999995</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="42" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="43">
         <v>14</v>
@@ -12152,18 +12175,18 @@
         <v>5028.9489999999996</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="42" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="43">
         <v>14</v>
@@ -12172,18 +12195,18 @@
         <v>5880</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="42" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="43">
         <v>14</v>
@@ -12192,18 +12215,18 @@
         <v>9352</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="42" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="43">
         <v>0</v>
@@ -12212,18 +12235,18 @@
         <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="42" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="43">
         <v>0</v>
@@ -12232,18 +12255,18 @@
         <v>0</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="42" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="43">
         <v>0</v>
@@ -12252,18 +12275,18 @@
         <v>0</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="42" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="43">
         <v>0</v>
@@ -12272,18 +12295,18 @@
         <v>0</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="42" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="43">
         <v>14</v>
@@ -12292,18 +12315,18 @@
         <v>718.423</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="42" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="43">
         <v>14</v>
@@ -12312,18 +12335,18 @@
         <v>980</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="45" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="46">
         <v>14</v>
@@ -12332,18 +12355,18 @@
         <v>2198.933</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="45" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="46">
         <v>14</v>
@@ -12352,18 +12375,18 @@
         <v>5880</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="45" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="46">
         <v>14</v>
@@ -12372,18 +12395,18 @@
         <v>9352</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="45" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="46">
         <v>14</v>
@@ -12392,18 +12415,18 @@
         <v>10220</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="45" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="46">
         <v>14</v>
@@ -12412,18 +12435,18 @@
         <v>193.506</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="45" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="46">
         <v>14</v>
@@ -12432,18 +12455,18 @@
         <v>2380</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="46">
         <v>14</v>
@@ -12452,18 +12475,18 @@
         <v>2520</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="45" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="46">
         <v>14</v>
@@ -12472,18 +12495,18 @@
         <v>3080</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="45" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="46">
         <v>0</v>
@@ -12492,18 +12515,18 @@
         <v>0</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="45" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="46">
         <v>0</v>
@@ -12512,18 +12535,18 @@
         <v>0</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="45" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="46">
         <v>0</v>
@@ -12532,18 +12555,18 @@
         <v>0</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="45" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="46">
         <v>0</v>
@@ -12552,18 +12575,18 @@
         <v>0</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="45" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="46">
         <v>0</v>
@@ -12572,18 +12595,18 @@
         <v>0</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="45" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="46">
         <v>0</v>
@@ -12592,18 +12615,18 @@
         <v>0</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="45" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="46">
         <v>0</v>
@@ -12612,18 +12635,18 @@
         <v>0</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="45" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="46">
         <v>14</v>
@@ -12632,18 +12655,18 @@
         <v>980</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="45" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="46">
         <v>0</v>
@@ -12652,18 +12675,18 @@
         <v>0</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="45" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="46">
         <v>0</v>
@@ -12672,18 +12695,18 @@
         <v>0</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F34" s="45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="45" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="46">
         <v>14</v>
@@ -12692,18 +12715,18 @@
         <v>1120</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="45" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="46">
         <v>14</v>
@@ -12712,18 +12735,18 @@
         <v>1680</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="45" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="46">
         <v>0</v>
@@ -12732,18 +12755,18 @@
         <v>0</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="45" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="46">
         <v>0</v>
@@ -12752,18 +12775,18 @@
         <v>0</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="45" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="46">
         <v>0</v>
@@ -12772,18 +12795,18 @@
         <v>0</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="45" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" s="46">
         <v>0</v>
@@ -12792,18 +12815,18 @@
         <v>0</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F40" s="45" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="45" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="46">
         <v>0</v>
@@ -12812,18 +12835,18 @@
         <v>0</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="45" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="46">
         <v>0</v>
@@ -12832,18 +12855,18 @@
         <v>0</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="45" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" s="46">
         <v>0</v>
@@ -12852,18 +12875,18 @@
         <v>0</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F43" s="45" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="45" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" s="46">
         <v>0</v>
@@ -12872,18 +12895,18 @@
         <v>0</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F44" s="45" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="45" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" s="46">
         <v>0</v>
@@ -12892,18 +12915,18 @@
         <v>0</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="45" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="46">
         <v>0</v>
@@ -12912,18 +12935,18 @@
         <v>0</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="45" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" s="46">
         <v>14</v>
@@ -12932,10 +12955,10 @@
         <v>8034.18</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F47" s="45" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
